--- a/CBS.xlsx
+++ b/CBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/jm_vergara_alumnos_upm_es/Documents/MUSE/2 SEMESTRE/CE1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAD0FC3-6DF4-4942-8715-7BD9BE91CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18777CF3-0066-4BAC-AEA4-4D8F6D63C616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CE89CE1F-9A88-43D5-A416-1BF994E085AF}</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{CE89CE1F-9A88-43D5-A416-1BF994E085AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    El coste de imprimir las placas PCB, no tengo una estimación mejor</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
@@ -145,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +186,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,7 +253,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -291,7 +315,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -317,6 +341,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-19E5-44AC-A6C4-8D130AD43C12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -332,6 +361,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-19E5-44AC-A6C4-8D130AD43C12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -347,6 +381,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-19E5-44AC-A6C4-8D130AD43C12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -362,6 +401,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-19E5-44AC-A6C4-8D130AD43C12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -377,6 +421,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-19E5-44AC-A6C4-8D130AD43C12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -411,7 +460,7 @@
                   <c:v>5814.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>341.3</c:v>
+                  <c:v>351.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
@@ -474,7 +523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -511,7 +560,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1122,8 +1171,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Diego M" id="{9C82A3C9-4DD9-4700-A388-00CB603D73AD}" userId="d04d5963266fa2c7" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1417,15 +1472,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C12" dT="2021-06-14T09:08:59.83" personId="{9C82A3C9-4DD9-4700-A388-00CB603D73AD}" id="{CE89CE1F-9A88-43D5-A416-1BF994E085AF}">
+    <text>El coste de imprimir las placas PCB, no tengo una estimación mejor</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3E597-C944-4ED2-B624-5AC357DDF83F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3E597-C944-4ED2-B624-5AC357DDF83F}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
@@ -1458,7 +1521,7 @@
       </c>
       <c r="D2" s="7">
         <f>C2/C19*100</f>
-        <v>78.777573031272013</v>
+        <v>78.670978566789358</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1473,7 +1536,7 @@
       </c>
       <c r="D3" s="7">
         <f>C3/C19*100</f>
-        <v>78.586526475529766</v>
+        <v>78.480190517427999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,7 +1551,7 @@
       </c>
       <c r="D4" s="7">
         <f>C4/C19*100</f>
-        <v>0.12329955015988293</v>
+        <v>0.12313271270837842</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,7 +1566,7 @@
       </c>
       <c r="D5" s="7">
         <f>C5/C19*100</f>
-        <v>6.7747005582353248E-2</v>
+        <v>6.7655336652955186E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1528,11 +1591,11 @@
       </c>
       <c r="C8">
         <f>SUM(C9:C12)</f>
-        <v>341.3</v>
+        <v>351.3</v>
       </c>
       <c r="D8" s="7">
         <f>C8/C19*100</f>
-        <v>4.6244106010514336</v>
+        <v>4.7534639532366318</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,7 +1610,7 @@
       </c>
       <c r="D9" s="7">
         <f>C9/C19*100</f>
-        <v>0.89900276407782753</v>
+        <v>0.89778631738471515</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,7 +1625,7 @@
       </c>
       <c r="D10" s="7">
         <f>C10/C19*100</f>
-        <v>6.7069535526529722E-2</v>
+        <v>6.6978783286425633E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,7 +1640,7 @@
       </c>
       <c r="D11" s="7">
         <f>C11/C19*100</f>
-        <v>3.6583383014470754</v>
+        <v>3.6533881792595797</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,9 +1650,12 @@
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
       <c r="D12" s="7">
         <f>C12/C19*100</f>
-        <v>0</v>
+        <v>0.13531067330591037</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1605,7 +1671,7 @@
       </c>
       <c r="D13" s="7">
         <f>C13/C19*100</f>
-        <v>0.3387350279117663</v>
+        <v>0.33827668326477589</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,7 +1686,7 @@
       </c>
       <c r="D14" s="7">
         <f>C14/C19*100</f>
-        <v>0.3387350279117663</v>
+        <v>0.33827668326477589</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,7 +1702,7 @@
       </c>
       <c r="D15" s="7">
         <f>C15/C19*100</f>
-        <v>16.25928133976478</v>
+        <v>16.237280796709243</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,7 +1729,7 @@
       </c>
       <c r="D17" s="7">
         <f>C17/C19*100</f>
-        <v>16.25928133976478</v>
+        <v>16.237280796709243</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,12 +1738,13 @@
       </c>
       <c r="C19">
         <f>SUM(C2,C6,C8,C13,C15)</f>
-        <v>7380.4000000000005</v>
+        <v>7390.4000000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/CBS.xlsx
+++ b/CBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18777CF3-0066-4BAC-AEA4-4D8F6D63C616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF84C20-A7D3-46DD-82E9-46BE74D84FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,9 @@
   <commentList>
     <comment ref="C12" authorId="0" shapeId="0" xr:uid="{CE89CE1F-9A88-43D5-A416-1BF994E085AF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     El coste de imprimir las placas PCB, no tengo una estimación mejor</t>
       </text>
     </comment>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Identificador</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC </t>
+  </si>
+  <si>
+    <t>OBC 2</t>
   </si>
 </sst>
 </file>
@@ -188,10 +194,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,7 +259,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -315,7 +321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -429,7 +435,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>(Hoja1!$A$2,Hoja1!$A$6,Hoja1!$A$8,Hoja1!$A$13,Hoja1!$A$15)</c:f>
+              <c:f>(Hoja1!$A$2,Hoja1!$A$6,Hoja1!$A$8,Hoja1!$A$13,Hoja1!$A$16)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -452,7 +458,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$C$2,Hoja1!$C$6,Hoja1!$C$8,Hoja1!$C$13,Hoja1!$C$15)</c:f>
+              <c:f>(Hoja1!$C$2,Hoja1!$C$6,Hoja1!$C$8,Hoja1!$C$13,Hoja1!$C$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -466,7 +472,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1200</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,7 +529,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -560,7 +566,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1142,7 +1148,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1178,7 +1184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1482,19 +1488,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3E597-C944-4ED2-B624-5AC357DDF83F}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1520,11 +1526,11 @@
         <v>5814.1</v>
       </c>
       <c r="D2" s="7">
-        <f>C2/C19*100</f>
-        <v>78.670978566789358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C2/C20*100</f>
+        <v>58.785286742699981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1535,11 +1541,11 @@
         <v>5800</v>
       </c>
       <c r="D3" s="7">
-        <f>C3/C19*100</f>
-        <v>78.480190517427999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C3/C20*100</f>
+        <v>58.642724257866206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1550,11 +1556,11 @@
         <v>9.1</v>
       </c>
       <c r="D4" s="7">
-        <f>C4/C19*100</f>
-        <v>0.12313271270837842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C4/C20*100</f>
+        <v>9.2008412197686629E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1565,11 +1571,11 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <f>C5/C19*100</f>
-        <v>6.7655336652955186E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C5/C20*100</f>
+        <v>5.055407263609156E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1578,11 +1584,11 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1594,11 +1600,11 @@
         <v>351.3</v>
       </c>
       <c r="D8" s="7">
-        <f>C8/C19*100</f>
-        <v>4.7534639532366318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C8/C20*100</f>
+        <v>3.551929143411793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1609,11 +1615,11 @@
         <v>66.349999999999994</v>
       </c>
       <c r="D9" s="7">
-        <f>C9/C19*100</f>
-        <v>0.89778631738471515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C9/C20*100</f>
+        <v>0.67085254388093485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1624,11 +1630,11 @@
         <v>4.95</v>
       </c>
       <c r="D10" s="7">
-        <f>C10/C19*100</f>
-        <v>6.6978783286425633E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C10/C20*100</f>
+        <v>5.0048531909730645E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1639,11 +1645,11 @@
         <v>270</v>
       </c>
       <c r="D11" s="7">
-        <f>C11/C19*100</f>
-        <v>3.6533881792595797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C11/C20*100</f>
+        <v>2.7299199223489441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1654,11 +1660,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <f>C12/C19*100</f>
-        <v>0.13531067330591037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C12/C20*100</f>
+        <v>0.10110814527218312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1670,11 +1676,11 @@
         <v>25</v>
       </c>
       <c r="D13" s="7">
-        <f>C13/C19*100</f>
-        <v>0.33827668326477589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <f>C13/C20*100</f>
+        <v>0.25277036318045781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1685,63 +1691,82 @@
         <v>25</v>
       </c>
       <c r="D14" s="7">
-        <f>C14/C19*100</f>
-        <v>0.33827668326477589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+        <f>C14/C20*100</f>
+        <v>0.25277036318045781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>21.57</v>
+      </c>
+      <c r="D15" s="7">
+        <f>C15/C20*100</f>
+        <v>0.21809026935209899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15">
-        <f>SUM(C16:C17)</f>
+      <c r="C16">
+        <f>SUM(C17:C18)</f>
+        <v>3700</v>
+      </c>
+      <c r="D16" s="7">
+        <f>C16/C20*100</f>
+        <v>37.410013750707748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
+      </c>
+      <c r="D17" s="7">
+        <f>C17/C20*100</f>
+        <v>25.277036318045777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
         <v>1200</v>
       </c>
-      <c r="D15" s="7">
-        <f>C15/C19*100</f>
-        <v>16.237280796709243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="7">
-        <f>C16/C19*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="7">
-        <f>C17/C19*100</f>
-        <v>16.237280796709243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="7">
+        <f>C18/C20*100</f>
+        <v>12.132977432661974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19">
-        <f>SUM(C2,C6,C8,C13,C15)</f>
-        <v>7390.4000000000005</v>
+      <c r="C20">
+        <f>SUM(C2,C6,C8,C13,C16)</f>
+        <v>9890.4000000000015</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/CBS.xlsx
+++ b/CBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF84C20-A7D3-46DD-82E9-46BE74D84FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFBDC4F-C8E9-42A0-90F8-33FA51FDCB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,9 @@
   <commentList>
     <comment ref="C12" authorId="0" shapeId="0" xr:uid="{CE89CE1F-9A88-43D5-A416-1BF994E085AF}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     El coste de imprimir las placas PCB, no tengo una estimación mejor</t>
       </text>
     </comment>
@@ -259,7 +259,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -270,62 +270,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Desglose de Costes</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -433,6 +378,129 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1839438815276763E-2"/>
+                  <c:y val="0.17228792524456124"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-19E5-44AC-A6C4-8D130AD43C12}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0919719407638333E-2"/>
+                  <c:y val="5.8402686523580088E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-19E5-44AC-A6C4-8D130AD43C12}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7427903351519872E-3"/>
+                  <c:y val="2.9201343261790044E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-19E5-44AC-A6C4-8D130AD43C12}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00\ [$€-C0A]" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>(Hoja1!$A$2,Hoja1!$A$6,Hoja1!$A$8,Hoja1!$A$13,Hoja1!$A$16)</c:f>
@@ -504,6 +572,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65862552832304411"/>
+          <c:y val="0.19517538213158619"/>
+          <c:w val="0.32572501940778531"/>
+          <c:h val="0.67472509374242484"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -517,7 +595,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -529,7 +607,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -566,7 +644,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1143,13 +1221,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1184,7 +1262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1490,17 +1568,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3E597-C944-4ED2-B624-5AC357DDF83F}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1608,7 @@
         <v>58.785286742699981</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1623,7 @@
         <v>58.642724257866206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1560,7 +1638,7 @@
         <v>9.2008412197686629E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1653,7 @@
         <v>5.055407263609156E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1584,11 +1662,11 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1604,7 +1682,7 @@
         <v>3.551929143411793</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1697,7 @@
         <v>0.67085254388093485</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1634,7 +1712,7 @@
         <v>5.0048531909730645E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +1727,7 @@
         <v>2.7299199223489441</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1742,7 @@
         <v>0.10110814527218312</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1758,7 @@
         <v>0.25277036318045781</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1773,7 @@
         <v>0.25277036318045781</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1710,7 +1788,7 @@
         <v>0.21809026935209899</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1726,7 +1804,7 @@
         <v>37.410013750707748</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1819,7 @@
         <v>25.277036318045777</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1756,7 +1834,7 @@
         <v>12.132977432661974</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>

--- a/CBS.xlsx
+++ b/CBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFBDC4F-C8E9-42A0-90F8-33FA51FDCB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0F1E2-8BF8-4482-9D49-D92763510C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,9 @@
   <commentList>
     <comment ref="C12" authorId="0" shapeId="0" xr:uid="{CE89CE1F-9A88-43D5-A416-1BF994E085AF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     El coste de imprimir las placas PCB, no tengo una estimación mejor</t>
       </text>
     </comment>
@@ -259,7 +259,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -402,11 +402,33 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4034034034034037E-2"/>
+                  <c:y val="1.6792611251049538E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-19E5-44AC-A6C4-8D130AD43C12}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.0919719407638333E-2"/>
-                  <c:y val="5.8402686523580088E-3"/>
+                  <c:x val="2.89076478052856E-2"/>
+                  <c:y val="5.8401704824680286E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -420,6 +442,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-19E5-44AC-A6C4-8D130AD43C12}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.6792611251049642E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-19E5-44AC-A6C4-8D130AD43C12}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -472,7 +516,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -532,6 +576,9 @@
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5814.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>351.3</c:v>
@@ -607,7 +654,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -644,7 +691,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1262,7 +1309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1568,17 +1615,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3E597-C944-4ED2-B624-5AC357DDF83F}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1605,10 +1652,10 @@
       </c>
       <c r="D2" s="7">
         <f>C2/C20*100</f>
-        <v>58.785286742699981</v>
+        <v>57.620114167921976</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1620,10 +1667,10 @@
       </c>
       <c r="D3" s="7">
         <f>C3/C20*100</f>
-        <v>58.642724257866206</v>
+        <v>57.480377388408776</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1635,10 +1682,10 @@
       </c>
       <c r="D4" s="7">
         <f>C4/C20*100</f>
-        <v>9.2008412197686629E-2</v>
+        <v>9.0184730040434452E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1650,23 +1697,26 @@
       </c>
       <c r="D5" s="7">
         <f>C5/C20*100</f>
-        <v>5.055407263609156E-2</v>
+        <v>4.9552049472766188E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1679,10 +1729,10 @@
       </c>
       <c r="D8" s="7">
         <f>C8/C20*100</f>
-        <v>3.551929143411793</v>
+        <v>3.4815269959565529</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1694,10 +1744,10 @@
       </c>
       <c r="D9" s="7">
         <f>C9/C20*100</f>
-        <v>0.67085254388093485</v>
+        <v>0.65755569650360723</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1709,10 +1759,10 @@
       </c>
       <c r="D10" s="7">
         <f>C10/C20*100</f>
-        <v>5.0048531909730645E-2</v>
+        <v>4.905652897803852E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1724,10 +1774,10 @@
       </c>
       <c r="D11" s="7">
         <f>C11/C20*100</f>
-        <v>2.7299199223489441</v>
+        <v>2.6758106715293741</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1739,10 +1789,10 @@
       </c>
       <c r="D12" s="7">
         <f>C12/C20*100</f>
-        <v>0.10110814527218312</v>
+        <v>9.9104098945532376E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1755,10 +1805,10 @@
       </c>
       <c r="D13" s="7">
         <f>C13/C20*100</f>
-        <v>0.25277036318045781</v>
+        <v>0.24776024736383093</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1770,10 +1820,10 @@
       </c>
       <c r="D14" s="7">
         <f>C14/C20*100</f>
-        <v>0.25277036318045781</v>
+        <v>0.24776024736383093</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1785,10 +1835,10 @@
       </c>
       <c r="D15" s="7">
         <f>C15/C20*100</f>
-        <v>0.21809026935209899</v>
+        <v>0.21376754142551332</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1801,10 +1851,10 @@
       </c>
       <c r="D16" s="7">
         <f>C16/C20*100</f>
-        <v>37.410013750707748</v>
+        <v>36.668516609846982</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1816,10 +1866,10 @@
       </c>
       <c r="D17" s="7">
         <f>C17/C20*100</f>
-        <v>25.277036318045777</v>
+        <v>24.776024736383093</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1831,16 +1881,16 @@
       </c>
       <c r="D18" s="7">
         <f>C18/C20*100</f>
-        <v>12.132977432661974</v>
+        <v>11.892491873463886</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20">
         <f>SUM(C2,C6,C8,C13,C16)</f>
-        <v>9890.4000000000015</v>
+        <v>10090.400000000001</v>
       </c>
     </row>
   </sheetData>

--- a/CBS.xlsx
+++ b/CBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0F1E2-8BF8-4482-9D49-D92763510C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCC655-B55A-473A-902F-52E5771DF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
+    <workbookView minimized="1" xWindow="-16905" yWindow="8325" windowWidth="13830" windowHeight="7170" xr2:uid="{133D1C89-660B-4844-975D-BA6DF787EE49}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,9 @@
   <commentList>
     <comment ref="C12" authorId="0" shapeId="0" xr:uid="{CE89CE1F-9A88-43D5-A416-1BF994E085AF}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     El coste de imprimir las placas PCB, no tengo una estimación mejor</t>
       </text>
     </comment>
@@ -259,7 +259,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -516,7 +516,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -584,7 +584,7 @@
                   <c:v>351.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>27.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3700</c:v>
@@ -654,7 +654,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -691,7 +691,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1616,16 +1616,16 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1652,10 +1652,10 @@
       </c>
       <c r="D2" s="7">
         <f>C2/C20*100</f>
-        <v>57.620114167921976</v>
+        <v>57.608010685141075</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1667,10 +1667,10 @@
       </c>
       <c r="D3" s="7">
         <f>C3/C20*100</f>
-        <v>57.480377388408776</v>
+        <v>57.468303258254629</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1682,10 +1682,10 @@
       </c>
       <c r="D4" s="7">
         <f>C4/C20*100</f>
-        <v>9.0184730040434452E-2</v>
+        <v>9.0165786146571905E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1697,10 +1697,10 @@
       </c>
       <c r="D5" s="7">
         <f>C5/C20*100</f>
-        <v>4.9552049472766188E-2</v>
+        <v>4.9541640739874673E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1729,10 +1729,10 @@
       </c>
       <c r="D8" s="7">
         <f>C8/C20*100</f>
-        <v>3.4815269959565529</v>
+        <v>3.4807956783835947</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1744,10 +1744,10 @@
       </c>
       <c r="D9" s="7">
         <f>C9/C20*100</f>
-        <v>0.65755569650360723</v>
+        <v>0.65741757261813694</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1759,10 +1759,10 @@
       </c>
       <c r="D10" s="7">
         <f>C10/C20*100</f>
-        <v>4.905652897803852E-2</v>
+        <v>4.9046224332475935E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1774,10 +1774,10 @@
       </c>
       <c r="D11" s="7">
         <f>C11/C20*100</f>
-        <v>2.6758106715293741</v>
+        <v>2.6752485999532323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1789,10 +1789,10 @@
       </c>
       <c r="D12" s="7">
         <f>C12/C20*100</f>
-        <v>9.9104098945532376E-2</v>
+        <v>9.9083281479749347E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1800,15 +1800,14 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <f>C14</f>
-        <v>25</v>
+        <v>27.12</v>
       </c>
       <c r="D13" s="7">
         <f>C13/C20*100</f>
-        <v>0.24776024736383093</v>
+        <v>0.26871385937308029</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1816,14 +1815,14 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>5.55</v>
       </c>
       <c r="D14" s="7">
         <f>C14/C20*100</f>
-        <v>0.24776024736383093</v>
+        <v>5.4991221221260884E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1835,10 +1834,10 @@
       </c>
       <c r="D15" s="7">
         <f>C15/C20*100</f>
-        <v>0.21376754142551332</v>
+        <v>0.21372263815181936</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1851,10 +1850,10 @@
       </c>
       <c r="D16" s="7">
         <f>C16/C20*100</f>
-        <v>36.668516609846982</v>
+        <v>36.66081414750726</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1866,10 +1865,10 @@
       </c>
       <c r="D17" s="7">
         <f>C17/C20*100</f>
-        <v>24.776024736383093</v>
+        <v>24.770820369937336</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1881,16 +1880,16 @@
       </c>
       <c r="D18" s="7">
         <f>C18/C20*100</f>
-        <v>11.892491873463886</v>
+        <v>11.889993777569922</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20">
         <f>SUM(C2,C6,C8,C13,C16)</f>
-        <v>10090.400000000001</v>
+        <v>10092.52</v>
       </c>
     </row>
   </sheetData>
